--- a/data/case1/15/Q2_2.xlsx
+++ b/data/case1/15/Q2_2.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.19745566556345295</v>
+        <v>0.24739049268230673</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999856756858</v>
+        <v>-0.0059999999439845908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999876787484</v>
+        <v>-0.0039999999494435556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999774571506</v>
+        <v>-0.0079999999078417261</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999879004591</v>
+        <v>-0.0029999999463408145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999881612496</v>
+        <v>-0.001999999941439512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.009999999969649398</v>
+        <v>-0.0099999998703621529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999684690088</v>
+        <v>-0.0099999998665407652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999855775386</v>
+        <v>-0.0019999999346036468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999844539929</v>
+        <v>-0.001999999931543428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.002999999982205459</v>
+        <v>-0.0029999999223768725</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999806983872</v>
+        <v>-0.0034999999168761065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999795957137</v>
+        <v>-0.0034999999140454818</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.007999999969031002</v>
+        <v>-0.0079999998736504097</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998489685993</v>
+        <v>-0.00099999993600441428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999824182879</v>
+        <v>-0.0019999999267561464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999822166714</v>
+        <v>-0.0019999999267188429</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999775535144</v>
+        <v>-0.0039999999086690607</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999899791305</v>
+        <v>-0.045771414292053336</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999868030045</v>
+        <v>-0.0039999999580384582</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999860826918</v>
+        <v>-0.0039999999576574297</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.040064177980649873</v>
+        <v>-0.0039999999573279155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.011430449235547258</v>
+        <v>-0.0049999999376044713</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999948752567</v>
+        <v>-0.019999999798542056</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999948036695</v>
+        <v>-0.019999999795939694</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.037250784766603928</v>
+        <v>-0.0024999999355515001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999864205869</v>
+        <v>-0.0024999999333812362</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999854336536</v>
+        <v>-0.001999999928367302</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.006999999972480353</v>
+        <v>-0.00699999987704647</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999850510299</v>
+        <v>-0.059999999400994763</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.035477466559203918</v>
+        <v>0.041472851492432738</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999655313587</v>
+        <v>-0.0099999998474178398</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999792268426</v>
+        <v>-0.018955321092457567</v>
       </c>
     </row>
   </sheetData>
